--- a/CVM committed effort calculation (1).xlsx
+++ b/CVM committed effort calculation (1).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7501FFF-AA59-4EC7-9B18-3A6828CA3415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5217249D-3A57-4F77-93EC-798E3EA83E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -58,18 +58,45 @@
     <t>NOTE</t>
   </si>
   <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Available MD</t>
+  </si>
+  <si>
+    <t>Estimation MD</t>
+  </si>
+  <si>
     <t>DAILY</t>
   </si>
   <si>
     <t>WEEKLY</t>
   </si>
   <si>
+    <t>Anaysis &amp; UX UI</t>
+  </si>
+  <si>
     <t>Luu Lam Thanh Tung</t>
   </si>
   <si>
     <t>PM</t>
   </si>
   <si>
+    <t>BE</t>
+  </si>
+  <si>
     <t>Nguyen Tat Thang</t>
   </si>
   <si>
@@ -79,9 +106,6 @@
     <t>Pham Nhu May</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>Nguyen Hai Nam</t>
   </si>
   <si>
@@ -107,12 +131,6 @@
   </si>
   <si>
     <t>Nguyen Vu Nghiem</t>
-  </si>
-  <si>
-    <t>Nguyen Tien Thanh</t>
-  </si>
-  <si>
-    <t>AI Dev</t>
   </si>
 </sst>
 </file>
@@ -150,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,11 +243,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,6 +272,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,55 +642,113 @@
     <col min="7" max="7" width="33.85546875" customWidth="1"/>
     <col min="8" max="8" width="32" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:21">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+    <row r="3" spans="2:21">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5">
+        <v>16</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4">
+        <v>307</v>
+      </c>
+      <c r="P3" s="4">
+        <f>O3/8</f>
+        <v>38.375</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="R3" s="4">
+        <f>P3/Q3</f>
+        <v>10.233333333333333</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:21">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -668,16 +763,48 @@
         <v>8</v>
       </c>
       <c r="I4" s="2"/>
+      <c r="K4">
+        <f>K3/8</f>
+        <v>3.75</v>
+      </c>
+      <c r="L4">
+        <f>L3/8</f>
+        <v>1.75</v>
+      </c>
+      <c r="M4" s="5">
+        <f>M3/8</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="4">
+        <v>322</v>
+      </c>
+      <c r="P4" s="4">
+        <f>O4/8</f>
+        <v>40.25</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="R4" s="4">
+        <f>P4/Q4</f>
+        <v>23</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:21">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -692,16 +819,34 @@
         <v>8</v>
       </c>
       <c r="I5" s="2"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>416</v>
+      </c>
+      <c r="P5" s="4">
+        <f>O5/8</f>
+        <v>52</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4">
+        <f>P5/Q5</f>
+        <v>26</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:21">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -716,16 +861,24 @@
         <v>10</v>
       </c>
       <c r="I6" s="2"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:21">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -740,16 +893,24 @@
         <v>8</v>
       </c>
       <c r="I7" s="2"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:21">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
@@ -762,16 +923,24 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:21">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -786,16 +955,27 @@
         <v>8</v>
       </c>
       <c r="I9" s="2"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <f>O5/3</f>
+        <v>138.66666666666666</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:21">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
@@ -809,15 +989,15 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:21">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
@@ -831,15 +1011,15 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:21">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
@@ -855,15 +1035,15 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:21">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
@@ -879,29 +1059,15 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>8</v>
-      </c>
-      <c r="I14" s="2"/>
+    <row r="15" spans="2:21">
+      <c r="F15">
+        <f>SUM(F4:F8)</f>
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <f>F15*2</f>
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1153,6 +1319,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e8769924-31ae-49bc-b52b-2ec16244192c" xsi:nil="true"/>
@@ -1163,23 +1338,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4133E73D-7DB6-4EBB-8876-07AAA89D773A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE01CEBD-C67C-416D-8595-D04C6E7C86CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DAAA0DB-ACC4-4A2A-8BC3-538A7976B5F4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DAAA0DB-ACC4-4A2A-8BC3-538A7976B5F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE01CEBD-C67C-416D-8595-D04C6E7C86CE}"/>
 </file>